--- a/mtbl_installer/data_defination/vendor.xlsx
+++ b/mtbl_installer/data_defination/vendor.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -95,6 +95,15 @@
     <t xml:space="preserve">Designation</t>
   </si>
   <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
     <t xml:space="preserve">T. K. Group</t>
   </si>
   <si>
@@ -131,6 +140,12 @@
     <t xml:space="preserve">Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAPPING DOCUMENT - Journals</t>
   </si>
   <si>
@@ -222,17 +237,27 @@
   </si>
   <si>
     <t xml:space="preserve">Designation name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending for approval or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,6 +278,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -352,21 +382,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -374,22 +428,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,8 +443,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -418,40 +472,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,37 +581,46 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1234567891234560</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>9114332</v>
@@ -569,7 +632,7 @@
         <v>9142333391423330</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>417149</v>
@@ -587,21 +650,29 @@
         <v>9874573215</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>1216</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="1"/>
+      <c r="X2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -619,158 +690,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -779,18 +852,18 @@
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>54</v>
       </c>
+      <c r="E7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -799,98 +872,98 @@
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>54</v>
+      <c r="D8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="12" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="12" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="12" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -899,18 +972,18 @@
       <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>54</v>
+      <c r="D13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -919,18 +992,18 @@
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
+      <c r="D14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="12" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -939,18 +1012,18 @@
       <c r="C15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>54</v>
+      <c r="D15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="12" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -959,18 +1032,18 @@
       <c r="C16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>54</v>
+      <c r="D16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="12" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -979,18 +1052,18 @@
       <c r="C17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>54</v>
+      <c r="D17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="12" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -999,18 +1072,18 @@
       <c r="C18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>54</v>
+      <c r="D18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="12" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -1019,18 +1092,18 @@
       <c r="C19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="10" t="n">
+      <c r="D19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="14" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -1039,18 +1112,18 @@
       <c r="C20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="10" t="n">
+      <c r="D20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="14" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="12" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -1059,18 +1132,18 @@
       <c r="C21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="10" t="n">
+      <c r="D21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="14" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="12" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1079,114 +1152,183 @@
       <c r="C22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="F22" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="12" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="12" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="12" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="12" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="12" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
